--- a/20230215_VXI-11 通信の概要/650_VXI_11_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/650_VXI_11_HeaderFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1109BFC-3D14-4D69-BBFC-F30B982D0FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B30337-7E97-4AC2-9EB9-3D07F2373CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="13185" windowHeight="11295" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="パケット構造" sheetId="3" r:id="rId1"/>
@@ -135,74 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>create_link の呼び出しのデータフォーマット</t>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_link の応答のデータフォーマット</t>
-    <rPh sb="13" eb="15">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>device_write の呼び出しのデータフォーマット</t>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>device_write の応答のデータフォーマット</t>
-    <rPh sb="14" eb="16">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>device_read の呼び出しのデータフォーマット</t>
-    <rPh sb="13" eb="14">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>device_read の応答のデータフォーマット</t>
-    <rPh sb="13" eb="15">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>destroy_link の応答のデータフォーマット</t>
-    <rPh sb="14" eb="16">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>destroy_link の呼び出しのデータフォーマット</t>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>error / エラー番号</t>
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
@@ -346,6 +278,98 @@
     <t>clientId / クライアント識別子</t>
     <rPh sb="17" eb="20">
       <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_link の引数 Create_LinkParms の形式</t>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_link の戻り値 Create_LinkResp の形式</t>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_write の引数 Device_WriteParms の形式</t>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_write の戻り値 Device_WriteResp の形式</t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_read の戻り値 Device_ReadResp の形式</t>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_read の引数 Device_ReadParms の形式</t>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destroy_link の引数 Device_Link の形式</t>
+    <rPh sb="14" eb="16">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destroy_link の戻り値 Device_Error の形式</t>
+    <rPh sb="14" eb="15">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケイシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -658,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,31 +695,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -707,16 +734,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -727,15 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBD233D-4037-4F09-A48A-D2566C102F0E}">
   <dimension ref="A2:BQ96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AG4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="102" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1660,206 +1681,206 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1869,521 +1890,521 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="10"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="18"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="18"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5" t="s">
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH18" s="6"/>
-      <c r="BQ18" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="AH18" s="4"/>
+      <c r="BQ18" s="4"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5" t="s">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5" t="s">
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="21"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -2416,452 +2437,452 @@
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12"/>
-      <c r="AG26" s="16"/>
+      <c r="AG26" s="13"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18"/>
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="9"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="18"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:69" x14ac:dyDescent="0.4">
+      <c r="B32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="B32" s="5" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="21"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="B38" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5" t="s">
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5" t="s">
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="21"/>
+      <c r="AF41" s="21"/>
+      <c r="AG41" s="21"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B38" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="21"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="21"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>30</v>
@@ -2871,232 +2892,200 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="B48" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5" t="s">
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5" t="s">
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
+      <c r="X50" s="21"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
+      <c r="AD50" s="21"/>
+      <c r="AE50" s="21"/>
+      <c r="AF50" s="21"/>
+      <c r="AG50" s="21"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -3129,337 +3118,340 @@
       <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
-      <c r="AG52" s="16"/>
+      <c r="AG52" s="13"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
-      <c r="AF53" s="21"/>
-      <c r="AG53" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="24"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="18"/>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="18"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="9"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
-      <c r="AG55" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="9"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5" t="s">
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5" t="s">
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="20"/>
+      <c r="AG59" s="20"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="21"/>
+      <c r="AE60" s="21"/>
+      <c r="AF60" s="21"/>
+      <c r="AG60" s="21"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5" t="s">
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5" t="s">
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5" t="s">
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5" t="s">
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
@@ -4462,31 +4454,51 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:Y55"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="Z52:AG52"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:Q7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="Z7:AG7"/>
-    <mergeCell ref="J8:Q8"/>
-    <mergeCell ref="R8:Y8"/>
-    <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AG69"/>
-    <mergeCell ref="B65:AG65"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="B15:AG15"/>
+    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="B3:AG3"/>
+    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B33:AG33"/>
+    <mergeCell ref="B34:AG34"/>
+    <mergeCell ref="B24:AG24"/>
+    <mergeCell ref="B25:AG25"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:Y32"/>
+    <mergeCell ref="Z32:AG32"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:Y27"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:Y28"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="B39:AG39"/>
+    <mergeCell ref="B60:AG60"/>
+    <mergeCell ref="B49:AG49"/>
+    <mergeCell ref="B50:AG50"/>
+    <mergeCell ref="B51:AG51"/>
+    <mergeCell ref="B40:AG40"/>
+    <mergeCell ref="B41:AG41"/>
+    <mergeCell ref="B42:AG42"/>
+    <mergeCell ref="B43:AG43"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="Z48:AG48"/>
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="J64:Q64"/>
     <mergeCell ref="R64:Y64"/>
@@ -4503,39 +4515,23 @@
     <mergeCell ref="J59:Q59"/>
     <mergeCell ref="R59:Y59"/>
     <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="B60:AG60"/>
-    <mergeCell ref="B49:AG49"/>
-    <mergeCell ref="B50:AG50"/>
-    <mergeCell ref="B51:AG51"/>
-    <mergeCell ref="B40:AG40"/>
-    <mergeCell ref="B41:AG41"/>
-    <mergeCell ref="B42:AG42"/>
-    <mergeCell ref="B43:AG43"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="B39:AG39"/>
-    <mergeCell ref="B33:AG33"/>
-    <mergeCell ref="B34:AG34"/>
-    <mergeCell ref="B24:AG24"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:Y32"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:Y28"/>
-    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AG69"/>
+    <mergeCell ref="B65:AG65"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:Y7"/>
+    <mergeCell ref="Z7:AG7"/>
+    <mergeCell ref="J8:Q8"/>
+    <mergeCell ref="R8:Y8"/>
+    <mergeCell ref="Z8:AG8"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="R20:Y20"/>
     <mergeCell ref="Z20:AG20"/>
     <mergeCell ref="B21:AG21"/>
@@ -4547,24 +4543,20 @@
     <mergeCell ref="Z12:AG12"/>
     <mergeCell ref="B13:AG13"/>
     <mergeCell ref="B14:AG14"/>
-    <mergeCell ref="B15:AG15"/>
-    <mergeCell ref="B16:AG16"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:Y55"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="Z52:AG52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:AG2 A79:A96 A3:A6 B64:AG64 B69:AG69 A65 A60 B59:AG59 A49:A55 B48:AG48 B20:AG20 A21:A28 A13:A16 B12:AG12 A7:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:AG2 A79:A96 B64:AG64 B69:AG69 B59:AG59 B48:AG48 B20:AG20 B12:AG12 A3:A8 A13:A16 A21:A28 B32:AG32 A33:A34 B38:AG38 A39:A44 A49:A55 A60 A65" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/20230215_VXI-11 通信の概要/650_VXI_11_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/650_VXI_11_HeaderFormat.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B30337-7E97-4AC2-9EB9-3D07F2373CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1AEDA-668B-46FA-BD9A-14AFF782979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="パケット構造" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">パケット構造!$A$1:$AI$67</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -704,7 +707,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,7 +725,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -734,28 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1667,11 +1670,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBD233D-4037-4F09-A48A-D2566C102F0E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:BQ96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="102" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="102" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1681,276 +1685,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="16"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="16"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -1961,202 +1965,202 @@
       <c r="A11"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20" t="s">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20" t="s">
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="21"/>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
@@ -2166,352 +2170,352 @@
       <c r="BQ18" s="4"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20" t="s">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20" t="s">
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="20"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="12"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="18"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="16"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -2519,124 +2523,124 @@
       </c>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.4">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20" t="s">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20" t="s">
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="21"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="21"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
@@ -2644,241 +2648,241 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20" t="s">
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20" t="s">
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="21"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
-      <c r="AG41" s="21"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="21"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="21"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
@@ -2925,311 +2929,311 @@
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20" t="s">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20" t="s">
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="21"/>
-      <c r="AF49" s="21"/>
-      <c r="AG49" s="21"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="13"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="20"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="24"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="17"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="12"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="8"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="9"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="12"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
@@ -3240,85 +3244,85 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20" t="s">
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20" t="s">
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="21"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
@@ -3326,85 +3330,85 @@
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20" t="s">
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="20" t="s">
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA64" s="20"/>
-      <c r="AB64" s="20"/>
-      <c r="AC64" s="20"/>
-      <c r="AD64" s="20"/>
-      <c r="AE64" s="20"/>
-      <c r="AF64" s="20"/>
-      <c r="AG64" s="20"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
@@ -3412,46 +3416,46 @@
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20" t="s">
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="20" t="s">
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA69" s="20"/>
-      <c r="AB69" s="20"/>
-      <c r="AC69" s="20"/>
-      <c r="AD69" s="20"/>
-      <c r="AE69" s="20"/>
-      <c r="AF69" s="20"/>
-      <c r="AG69" s="20"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
@@ -4454,18 +4458,68 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="B15:AG15"/>
-    <mergeCell ref="B16:AG16"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:Y52"/>
+    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AG20"/>
+    <mergeCell ref="B21:AG21"/>
+    <mergeCell ref="B22:AG22"/>
+    <mergeCell ref="B23:AG23"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="Z12:AG12"/>
+    <mergeCell ref="B13:AG13"/>
+    <mergeCell ref="B14:AG14"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="J69:Q69"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AG69"/>
+    <mergeCell ref="B65:AG65"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="J64:Q64"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="Z64:AG64"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:Y53"/>
+    <mergeCell ref="Z53:AG53"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:Y54"/>
+    <mergeCell ref="Z54:AG54"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="J59:Q59"/>
+    <mergeCell ref="R59:Y59"/>
+    <mergeCell ref="Z59:AG59"/>
+    <mergeCell ref="B60:AG60"/>
+    <mergeCell ref="B49:AG49"/>
+    <mergeCell ref="B50:AG50"/>
+    <mergeCell ref="B51:AG51"/>
+    <mergeCell ref="B40:AG40"/>
+    <mergeCell ref="B41:AG41"/>
+    <mergeCell ref="B42:AG42"/>
+    <mergeCell ref="B43:AG43"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:Y48"/>
+    <mergeCell ref="Z48:AG48"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:Y55"/>
+    <mergeCell ref="Z55:AG55"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="B39:AG39"/>
     <mergeCell ref="B33:AG33"/>
     <mergeCell ref="B34:AG34"/>
     <mergeCell ref="B24:AG24"/>
@@ -4482,44 +4536,13 @@
     <mergeCell ref="J28:Q28"/>
     <mergeCell ref="R28:Y28"/>
     <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="B39:AG39"/>
-    <mergeCell ref="B60:AG60"/>
-    <mergeCell ref="B49:AG49"/>
-    <mergeCell ref="B50:AG50"/>
-    <mergeCell ref="B51:AG51"/>
-    <mergeCell ref="B40:AG40"/>
-    <mergeCell ref="B41:AG41"/>
-    <mergeCell ref="B42:AG42"/>
-    <mergeCell ref="B43:AG43"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:Y48"/>
-    <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="J64:Q64"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="Z64:AG64"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:Y53"/>
-    <mergeCell ref="Z53:AG53"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:Y54"/>
-    <mergeCell ref="Z54:AG54"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="J59:Q59"/>
-    <mergeCell ref="R59:Y59"/>
-    <mergeCell ref="Z59:AG59"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="J69:Q69"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AG69"/>
-    <mergeCell ref="B65:AG65"/>
+    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="B3:AG3"/>
+    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="B6:AG6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="J7:Q7"/>
     <mergeCell ref="R7:Y7"/>
@@ -4527,34 +4550,15 @@
     <mergeCell ref="J8:Q8"/>
     <mergeCell ref="R8:Y8"/>
     <mergeCell ref="Z8:AG8"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AG20"/>
-    <mergeCell ref="B21:AG21"/>
-    <mergeCell ref="B22:AG22"/>
-    <mergeCell ref="B23:AG23"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="Z12:AG12"/>
-    <mergeCell ref="B13:AG13"/>
-    <mergeCell ref="B14:AG14"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:Y55"/>
-    <mergeCell ref="Z55:AG55"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:Y52"/>
-    <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="B15:AG15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B2:AG2 A79:A96 B64:AG64 B69:AG69 B59:AG59 B48:AG48 B20:AG20 B12:AG12 A3:A8 A13:A16 A21:A28 B32:AG32 A33:A34 B38:AG38 A39:A44 A49:A55 A60 A65" numberStoredAsText="1"/>
   </ignoredErrors>
